--- a/项目规划表.xlsx
+++ b/项目规划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>齐澜立项目规划表</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>已完成</t>
+  </si>
+  <si>
+    <t>数据库基础增删改查方法的封装</t>
   </si>
   <si>
     <t>注意：</t>
@@ -71,12 +74,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,12 +138,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -148,70 +174,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,7 +252,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,43 +280,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -294,187 +290,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,16 +509,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,31 +573,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,165 +597,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,13 +1131,13 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="34.25" customWidth="1"/>
     <col min="3" max="3" width="17.775" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="17.8833333333333" customWidth="1"/>
@@ -1212,8 +1208,12 @@
       <c r="A5" s="4">
         <v>43493</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1389,12 +1389,12 @@
     </row>
     <row r="23" ht="18.75" spans="2:2">
       <c r="B23" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="27" ht="22.5" spans="2:7">
       <c r="B27" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>

--- a/项目规划表.xlsx
+++ b/项目规划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>齐澜立项目规划表</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>数据库基础增删改查方法的封装</t>
+  </si>
+  <si>
+    <t>休息</t>
+  </si>
+  <si>
+    <t>登陆  房间类别的增加</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>房间类别</t>
+  </si>
+  <si>
+    <t>明天</t>
   </si>
   <si>
     <t>注意：</t>
@@ -74,9 +89,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -138,7 +153,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,135 +295,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -290,187 +305,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,16 +524,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,7 +551,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,21 +583,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -591,17 +600,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,10 +626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,133 +638,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,7 +1146,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1223,7 +1238,9 @@
       <c r="A6" s="4">
         <v>43494</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1234,11 +1251,19 @@
       <c r="A7" s="4">
         <v>43495</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" ht="14.25" spans="1:7">
@@ -1389,12 +1414,12 @@
     </row>
     <row r="23" ht="18.75" spans="2:2">
       <c r="B23" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1404,7 +1429,7 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1414,7 +1439,7 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1424,7 +1449,7 @@
     </row>
     <row r="27" ht="22.5" spans="2:7">
       <c r="B27" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
